--- a/reports/plan.xlsx
+++ b/reports/plan.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Todos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Modules</t>
   </si>
@@ -26,14 +27,139 @@
   </si>
   <si>
     <t>define and stoer db</t>
+  </si>
+  <si>
+    <t>Connect api to translate</t>
+  </si>
+  <si>
+    <t>Connect endpoint to query data</t>
+  </si>
+  <si>
+    <t>Display data on the web ?</t>
+  </si>
+  <si>
+    <t>Save response ?</t>
+  </si>
+  <si>
+    <t>Algorithms to process and evaluate response</t>
+  </si>
+  <si>
+    <t>Response text confidence ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t>User confidence</t>
+  </si>
+  <si>
+    <t>User status</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Answer confidence</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Response confidence</t>
+  </si>
+  <si>
+    <t>3 algorithms</t>
+  </si>
+  <si>
+    <t>Majority voting</t>
+  </si>
+  <si>
+    <t>Page rank</t>
+  </si>
+  <si>
+    <t>HoneySpot</t>
+  </si>
+  <si>
+    <t>lang support ? Not now</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>1. Setup a db offline incase online is not working</t>
+  </si>
+  <si>
+    <t>2. Set up endpoint online and offline</t>
+  </si>
+  <si>
+    <t>3. Query data &amp; display</t>
+  </si>
+  <si>
+    <t>Upcomings</t>
+  </si>
+  <si>
+    <t>List of translate services</t>
+  </si>
+  <si>
+    <t>Quey and handle errors</t>
+  </si>
+  <si>
+    <t>Save response</t>
+  </si>
+  <si>
+    <t>Evalute response</t>
+  </si>
+  <si>
+    <t>User table</t>
+  </si>
+  <si>
+    <t>Response table</t>
+  </si>
+  <si>
+    <t>Result table</t>
+  </si>
+  <si>
+    <t>Front end</t>
+  </si>
+  <si>
+    <t>Display data</t>
+  </si>
+  <si>
+    <t>Translate data</t>
+  </si>
+  <si>
+    <t>Answer form</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Display result</t>
+  </si>
+  <si>
+    <t>Charts</t>
+  </si>
+  <si>
+    <t>Statitics</t>
+  </si>
+  <si>
+    <t>log?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +187,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,26 +497,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -399,4 +527,197 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>